--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3228" uniqueCount="592">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2452,19 +2448,19 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2475,7 +2471,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2486,28 +2482,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2557,13 +2553,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2592,7 +2588,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2603,25 +2599,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2672,19 +2668,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2707,7 +2703,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2718,7 +2714,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -2730,13 +2726,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2787,31 +2783,31 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2822,11 +2818,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2845,16 +2841,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2892,19 +2888,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2916,7 +2912,7 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2928,7 +2924,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -2939,7 +2935,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2950,28 +2946,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3021,19 +3017,19 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -3056,7 +3052,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -3067,28 +3063,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3138,19 +3134,19 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -3173,7 +3169,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3184,28 +3180,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3255,19 +3251,19 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3290,7 +3286,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3310,19 +3306,19 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3372,7 +3368,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3384,7 +3380,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3407,7 +3403,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3427,19 +3423,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3465,31 +3461,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3501,7 +3497,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3524,7 +3520,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3544,19 +3540,19 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3582,29 +3578,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3616,7 +3612,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3639,7 +3635,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3650,28 +3646,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3721,19 +3717,19 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3767,7 +3763,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3779,16 +3775,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3814,43 +3810,43 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3873,18 +3869,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3896,16 +3892,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3955,31 +3951,31 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3990,11 +3986,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -4013,16 +4009,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4072,7 +4068,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -4096,7 +4092,7 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4107,7 +4103,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4115,7 +4111,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -4130,13 +4126,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -4175,17 +4171,17 @@
         <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -4197,7 +4193,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -4220,10 +4216,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>78</v>
@@ -4233,7 +4229,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -4245,13 +4241,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4302,7 +4298,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -4311,10 +4307,10 @@
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -4337,20 +4333,20 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -4362,13 +4358,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4419,7 +4415,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4428,10 +4424,10 @@
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4454,10 +4450,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
@@ -4467,7 +4463,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4479,13 +4475,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4536,7 +4532,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4545,10 +4541,10 @@
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4571,10 +4567,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>78</v>
@@ -4596,13 +4592,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4653,7 +4649,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4662,10 +4658,10 @@
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4688,11 +4684,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4705,25 +4701,25 @@
         <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>78</v>
@@ -4772,7 +4768,7 @@
         <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4784,7 +4780,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4796,7 +4792,7 @@
         <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4807,7 +4803,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4827,20 +4823,20 @@
         <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>78</v>
@@ -4889,7 +4885,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4901,22 +4897,22 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>78</v>
@@ -4924,7 +4920,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4935,7 +4931,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4947,13 +4943,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5004,31 +5000,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -5039,11 +5035,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -5062,16 +5058,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -5109,19 +5105,19 @@
         <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -5133,7 +5129,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
@@ -5145,7 +5141,7 @@
         <v>78</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -5156,7 +5152,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5167,31 +5163,31 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -5216,55 +5212,55 @@
         <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>78</v>
@@ -5275,7 +5271,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5286,31 +5282,31 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -5335,55 +5331,55 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>78</v>
@@ -5394,7 +5390,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5405,31 +5401,31 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5442,7 +5438,7 @@
         <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>78</v>
@@ -5454,53 +5450,53 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5511,7 +5507,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5522,28 +5518,28 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5557,67 +5553,67 @@
         <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5628,7 +5624,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5639,25 +5635,25 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5708,31 +5704,31 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5743,7 +5739,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5754,28 +5750,28 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5825,31 +5821,31 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5860,40 +5856,40 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>78</v>
@@ -5942,7 +5938,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5954,19 +5950,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5977,11 +5973,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5997,19 +5993,19 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -6059,7 +6055,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -6071,19 +6067,19 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6094,7 +6090,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6102,34 +6098,34 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="I34" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J34" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>78</v>
@@ -6154,58 +6150,58 @@
         <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>78</v>
@@ -6213,7 +6209,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6224,7 +6220,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6236,19 +6232,19 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -6273,11 +6269,11 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -6295,7 +6291,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -6307,7 +6303,7 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>78</v>
@@ -6319,10 +6315,10 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>78</v>
@@ -6330,42 +6326,42 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -6390,64 +6386,64 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6458,31 +6454,31 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6531,34 +6527,34 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6566,7 +6562,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6577,7 +6573,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6589,13 +6585,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6646,31 +6642,31 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6681,11 +6677,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6704,16 +6700,16 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6751,19 +6747,19 @@
         <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB39" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB39" t="s" s="2">
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
+      <c r="AE39" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6775,7 +6771,7 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6787,7 +6783,7 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6798,7 +6794,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6809,28 +6805,28 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J40" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6880,19 +6876,19 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6904,7 +6900,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6915,7 +6911,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6926,28 +6922,28 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6973,43 +6969,43 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -7021,7 +7017,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -7032,7 +7028,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7043,28 +7039,28 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G42" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7114,31 +7110,31 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7149,7 +7145,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7160,7 +7156,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -7172,13 +7168,13 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7229,31 +7225,31 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7264,11 +7260,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7287,16 +7283,16 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7334,19 +7330,19 @@
         <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AB44" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AB44" t="s" s="2">
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
+      <c r="AE44" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -7358,7 +7354,7 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
@@ -7370,7 +7366,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7381,7 +7377,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7392,31 +7388,31 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -7441,55 +7437,55 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X45" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y45" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7500,7 +7496,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7511,31 +7507,31 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>78</v>
@@ -7560,55 +7556,55 @@
         <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>242</v>
-      </c>
       <c r="AM46" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7619,7 +7615,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7630,31 +7626,31 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7667,7 +7663,7 @@
         <v>78</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>78</v>
@@ -7679,11 +7675,11 @@
         <v>78</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>78</v>
@@ -7701,31 +7697,31 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7736,7 +7732,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7747,28 +7743,28 @@
         <v>76</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7782,67 +7778,67 @@
         <v>78</v>
       </c>
       <c r="S48" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="T48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7853,7 +7849,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7864,25 +7860,25 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7933,31 +7929,31 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7968,7 +7964,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7979,28 +7975,28 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -8050,31 +8046,31 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8085,7 +8081,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8096,28 +8092,28 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G51" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -8167,19 +8163,19 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>78</v>
@@ -8191,7 +8187,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8202,7 +8198,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8222,19 +8218,19 @@
         <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8284,7 +8280,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -8296,7 +8292,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8305,13 +8301,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8319,42 +8315,42 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -8403,34 +8399,34 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8438,42 +8434,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -8522,34 +8518,34 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8557,7 +8553,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8568,28 +8564,28 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8639,19 +8635,19 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>78</v>
@@ -8660,13 +8656,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8674,7 +8670,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8694,20 +8690,20 @@
         <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>78</v>
@@ -8756,7 +8752,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8768,22 +8764,22 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8791,7 +8787,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8802,31 +8798,31 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J57" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8863,55 +8859,55 @@
         <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH57" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AI57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AL57" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C58" t="s" s="2">
         <v>78</v>
@@ -8921,31 +8917,31 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8970,11 +8966,11 @@
         <v>78</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>78</v>
@@ -8992,42 +8988,42 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH58" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9038,7 +9034,7 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9050,19 +9046,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -9087,55 +9083,55 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH59" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH59" t="s" s="2">
+      <c r="AI59" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9146,18 +9142,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -9169,19 +9165,19 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -9206,11 +9202,11 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -9228,7 +9224,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -9240,30 +9236,30 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9286,19 +9282,19 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -9347,7 +9343,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -9359,7 +9355,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>78</v>
@@ -9368,10 +9364,10 @@
         <v>78</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9382,7 +9378,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9393,7 +9389,7 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9405,16 +9401,16 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9440,66 +9436,66 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="X62" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="X62" t="s" s="2">
+      <c r="Y62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9510,7 +9506,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9522,19 +9518,19 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9559,53 +9555,53 @@
         <v>78</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9616,7 +9612,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9627,7 +9623,7 @@
         <v>76</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -9639,16 +9635,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9698,42 +9694,42 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>485</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9744,7 +9740,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9756,16 +9752,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9815,42 +9811,42 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>494</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9873,19 +9869,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9934,7 +9930,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9946,19 +9942,19 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL66" t="s" s="2">
+      <c r="AM66" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9969,7 +9965,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9980,7 +9976,7 @@
         <v>76</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9992,13 +9988,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -10049,31 +10045,31 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10084,11 +10080,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -10107,16 +10103,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10166,7 +10162,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -10178,7 +10174,7 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10190,7 +10186,7 @@
         <v>78</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10201,11 +10197,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -10218,25 +10214,25 @@
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
@@ -10285,7 +10281,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -10297,7 +10293,7 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10309,7 +10305,7 @@
         <v>78</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -10320,7 +10316,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10331,7 +10327,7 @@
         <v>76</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>78</v>
@@ -10343,13 +10339,13 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>514</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10400,31 +10396,31 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AI70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10435,7 +10431,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10446,7 +10442,7 @@
         <v>76</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10458,13 +10454,13 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -10515,31 +10511,31 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH71" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AI71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="AM71" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10550,7 +10546,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10573,19 +10569,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10610,55 +10606,55 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL72" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AM72" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10669,7 +10665,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10692,19 +10688,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10729,14 +10725,14 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="Z73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10753,7 +10749,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10765,19 +10761,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="AL73" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="AM73" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10788,7 +10784,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10811,17 +10807,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10870,19 +10866,19 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10894,7 +10890,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10905,7 +10901,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10916,7 +10912,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10928,13 +10924,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10985,19 +10981,19 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>78</v>
@@ -11006,10 +11002,10 @@
         <v>78</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -11020,7 +11016,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11040,19 +11036,19 @@
         <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11102,7 +11098,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -11114,7 +11110,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11123,10 +11119,10 @@
         <v>78</v>
       </c>
       <c r="AL76" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -11137,7 +11133,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11157,19 +11153,19 @@
         <v>78</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="K77" t="s" s="2">
+      <c r="L77" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -11219,7 +11215,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -11231,7 +11227,7 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
@@ -11240,10 +11236,10 @@
         <v>78</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -11254,7 +11250,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11274,22 +11270,22 @@
         <v>78</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>565</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -11338,7 +11334,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -11350,7 +11346,7 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11359,10 +11355,10 @@
         <v>78</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11373,7 +11369,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11384,7 +11380,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11396,13 +11392,13 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11453,31 +11449,31 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11488,11 +11484,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11511,16 +11507,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -11570,7 +11566,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11582,7 +11578,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11594,7 +11590,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11605,11 +11601,11 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11622,25 +11618,25 @@
         <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="M81" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11689,7 +11685,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11701,7 +11697,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>78</v>
@@ -11713,7 +11709,7 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11724,7 +11720,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11732,34 +11728,34 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="F82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>574</v>
-      </c>
       <c r="N82" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11784,58 +11780,58 @@
         <v>78</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="Z82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>577</v>
-      </c>
       <c r="AL82" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>78</v>
@@ -11843,7 +11839,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11854,31 +11850,31 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J83" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L83" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11927,42 +11923,42 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AL83" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11973,7 +11969,7 @@
         <v>76</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11985,19 +11981,19 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>586</v>
-      </c>
       <c r="N84" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12022,55 +12018,55 @@
         <v>78</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH84" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH84" t="s" s="2">
+      <c r="AI84" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -12081,11 +12077,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12104,19 +12100,19 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -12141,14 +12137,14 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>588</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>589</v>
-      </c>
       <c r="Z85" t="s" s="2">
         <v>78</v>
       </c>
@@ -12165,7 +12161,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -12177,30 +12173,30 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL85" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="AL85" t="s" s="2">
+      <c r="AM85" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>449</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12226,16 +12222,16 @@
         <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="L86" t="s" s="2">
-        <v>592</v>
-      </c>
       <c r="M86" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -12284,7 +12280,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -12296,7 +12292,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12305,10 +12301,10 @@
         <v>78</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>78</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1000,7 +1000,7 @@
     <t>Type of observation (code / type)</t>
   </si>
   <si>
-    <t>The investigations involved in this obeservation.</t>
+    <t>The investigations involved in this observation.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,7 +485,7 @@
     <t>Tags applied to this resource</t>
   </si>
   <si>
-    <t>Relevant searchable codes are located in various elements (code, value) depending on the type of investigation. They are all collected in tag for easier search. In hierachical sets of observations the codes may also be at various depth in the hierachy. All codes are in such cases collected in this element in the top-level observation. Hence a hit on a code in tag will always return a top-level observation, from which any hierarchy only needs to be nested inwards.</t>
+    <t>Relevant searchable codes are located in various elements (code, value) depending on the type of investigation. They are all collected in tag for easier search. In hierachical sets of observations (hasMember) the codes may also be at various depth in the hierachy. All codes are in such cases collected in this element in the top-level observation. Hence a hit on a code in tag will always return a top-level observation, from which any hierarchy only needs to be nested inwards.</t>
   </si>
   <si>
     <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
@@ -789,7 +789,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://nhn.no/fhir/nilar/ValueSet/id-provider-vs</t>
+    <t>http://nhn.no/fhir/nilar/ValueSet/identifier-source-vs</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -10557,7 +10557,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10676,7 +10676,7 @@
         <v>76</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -10795,7 +10795,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="599">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Measurements and simple assertions</t>
@@ -2401,16 +2405,16 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2475,16 +2479,16 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>79</v>
@@ -2495,10 +2499,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2509,7 +2513,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2518,19 +2522,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2580,13 +2584,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2615,10 +2619,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2629,7 +2633,7 @@
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2638,16 +2642,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2698,19 +2702,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2733,10 +2737,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2747,7 +2751,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
@@ -2759,13 +2763,13 @@
         <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2816,13 +2820,13 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
@@ -2840,7 +2844,7 @@
         <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>79</v>
@@ -2851,14 +2855,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2877,16 +2881,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2924,19 +2928,19 @@
         <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2948,7 +2952,7 @@
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2960,7 +2964,7 @@
         <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>79</v>
@@ -2971,10 +2975,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2985,7 +2989,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2994,19 +2998,19 @@
         <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3056,19 +3060,19 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
@@ -3091,10 +3095,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3105,7 +3109,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -3114,19 +3118,19 @@
         <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3176,19 +3180,19 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>79</v>
@@ -3211,10 +3215,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3225,7 +3229,7 @@
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>79</v>
@@ -3234,19 +3238,19 @@
         <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3296,19 +3300,19 @@
         <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3331,10 +3335,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3354,19 +3358,19 @@
         <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3416,7 +3420,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -3428,7 +3432,7 @@
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3451,10 +3455,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3474,19 +3478,19 @@
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3512,13 +3516,13 @@
         <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>79</v>
@@ -3536,7 +3540,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3548,7 +3552,7 @@
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3571,10 +3575,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3594,19 +3598,19 @@
         <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3632,11 +3636,11 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3654,7 +3658,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3666,7 +3670,7 @@
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3689,10 +3693,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3703,28 +3707,28 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3774,19 +3778,19 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3809,10 +3813,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3823,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3835,16 +3839,16 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3870,13 +3874,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3894,19 +3898,19 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
@@ -3929,21 +3933,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3955,16 +3959,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4014,19 +4018,19 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4038,7 +4042,7 @@
         <v>79</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>79</v>
@@ -4049,14 +4053,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4075,16 +4079,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4134,7 +4138,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -4158,7 +4162,7 @@
         <v>79</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -4169,10 +4173,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4180,7 +4184,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -4195,13 +4199,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4240,17 +4244,17 @@
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -4262,7 +4266,7 @@
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>79</v>
@@ -4285,13 +4289,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>79</v>
@@ -4301,7 +4305,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>79</v>
@@ -4313,13 +4317,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4370,7 +4374,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -4379,10 +4383,10 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
@@ -4405,23 +4409,23 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4433,13 +4437,13 @@
         <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4490,7 +4494,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4499,10 +4503,10 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
@@ -4525,13 +4529,13 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>79</v>
@@ -4541,7 +4545,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4553,13 +4557,13 @@
         <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4610,7 +4614,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4619,10 +4623,10 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
@@ -4645,13 +4649,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>79</v>
@@ -4673,13 +4677,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4730,7 +4734,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4739,10 +4743,10 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
@@ -4765,14 +4769,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4785,25 +4789,25 @@
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4852,7 +4856,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4864,7 +4868,7 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
@@ -4876,7 +4880,7 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4887,10 +4891,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4910,20 +4914,20 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4972,7 +4976,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4987,19 +4991,19 @@
         <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -5007,10 +5011,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5021,7 +5025,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -5033,13 +5037,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5090,13 +5094,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -5114,7 +5118,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5125,14 +5129,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5151,16 +5155,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5198,19 +5202,19 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5222,7 +5226,7 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -5234,7 +5238,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5245,10 +5249,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5259,31 +5263,31 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5308,13 +5312,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5332,19 +5336,19 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5353,10 +5357,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5367,10 +5371,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5381,7 +5385,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5390,22 +5394,22 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5430,13 +5434,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5454,19 +5458,19 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5475,10 +5479,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5489,10 +5493,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5503,31 +5507,31 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5540,7 +5544,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5552,11 +5556,11 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5574,19 +5578,19 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
@@ -5595,10 +5599,10 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5609,10 +5613,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5623,28 +5627,28 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5658,7 +5662,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5694,19 +5698,19 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5715,10 +5719,10 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5729,10 +5733,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5743,7 +5747,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5752,16 +5756,16 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5812,19 +5816,19 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5833,10 +5837,10 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5847,10 +5851,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5861,7 +5865,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5870,19 +5874,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5932,19 +5936,19 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -5953,10 +5957,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5967,21 +5971,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5990,20 +5994,20 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6052,7 +6056,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6064,19 +6068,19 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6087,14 +6091,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6110,19 +6114,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6172,7 +6176,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6184,19 +6188,19 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6207,10 +6211,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6218,34 +6222,34 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6270,13 +6274,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6294,34 +6298,34 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -6329,10 +6333,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6343,7 +6347,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6355,19 +6359,19 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6392,11 +6396,11 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6414,7 +6418,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6426,7 +6430,7 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6438,10 +6442,10 @@
         <v>79</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6449,21 +6453,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6472,22 +6476,22 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6512,11 +6516,11 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6534,45 +6538,45 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6583,31 +6587,31 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6656,34 +6660,34 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6691,10 +6695,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6705,7 +6709,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6717,13 +6721,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6774,13 +6778,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
@@ -6798,7 +6802,7 @@
         <v>79</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6809,14 +6813,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6835,16 +6839,16 @@
         <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6882,19 +6886,19 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6906,7 +6910,7 @@
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
@@ -6918,7 +6922,7 @@
         <v>79</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6929,10 +6933,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6943,7 +6947,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6952,19 +6956,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7014,19 +7018,19 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
@@ -7038,7 +7042,7 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7049,10 +7053,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7063,7 +7067,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -7072,19 +7076,19 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7110,13 +7114,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7134,19 +7138,19 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>79</v>
@@ -7158,7 +7162,7 @@
         <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7169,10 +7173,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7183,28 +7187,28 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7254,19 +7258,19 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
@@ -7278,7 +7282,7 @@
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7289,10 +7293,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7303,7 +7307,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7315,13 +7319,13 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7372,13 +7376,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -7396,7 +7400,7 @@
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7407,14 +7411,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7433,16 +7437,16 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7480,19 +7484,19 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7504,7 +7508,7 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7516,7 +7520,7 @@
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7527,10 +7531,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7541,31 +7545,31 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7590,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7614,19 +7618,19 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7635,10 +7639,10 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7649,10 +7653,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7663,7 +7667,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7672,22 +7676,22 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7712,13 +7716,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7736,19 +7740,19 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7757,10 +7761,10 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7771,10 +7775,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7785,31 +7789,31 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7822,7 +7826,7 @@
         <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>79</v>
@@ -7834,11 +7838,11 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7856,19 +7860,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7877,10 +7881,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7891,10 +7895,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7905,28 +7909,28 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7940,7 +7944,7 @@
         <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>79</v>
@@ -7976,19 +7980,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7997,10 +8001,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8011,10 +8015,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8025,7 +8029,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8034,16 +8038,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8094,19 +8098,19 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8115,10 +8119,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8129,10 +8133,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8143,7 +8147,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -8152,19 +8156,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8214,19 +8218,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8235,10 +8239,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8249,10 +8253,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8263,28 +8267,28 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8334,19 +8338,19 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
@@ -8358,7 +8362,7 @@
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8369,10 +8373,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8392,19 +8396,19 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8454,7 +8458,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8466,7 +8470,7 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -8475,13 +8479,13 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8489,21 +8493,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8512,22 +8516,22 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8576,34 +8580,34 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8611,21 +8615,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8634,22 +8638,22 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8698,34 +8702,34 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8733,10 +8737,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8747,7 +8751,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8756,19 +8760,19 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8818,19 +8822,19 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8839,13 +8843,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8853,10 +8857,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8876,20 +8880,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8938,7 +8942,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8950,22 +8954,22 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8973,10 +8977,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8987,7 +8991,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8996,22 +9000,22 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -9048,58 +9052,58 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>79</v>
@@ -9109,7 +9113,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9118,22 +9122,22 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9158,11 +9162,11 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9180,45 +9184,45 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9229,7 +9233,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -9241,19 +9245,19 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9278,13 +9282,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9302,19 +9306,19 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9323,10 +9327,10 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>79</v>
@@ -9337,21 +9341,21 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9363,19 +9367,19 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9400,11 +9404,11 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9422,7 +9426,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9434,33 +9438,33 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9483,19 +9487,19 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9544,7 +9548,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9556,7 +9560,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9565,10 +9569,10 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9579,10 +9583,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9593,7 +9597,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9605,16 +9609,16 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9640,13 +9644,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9664,45 +9668,45 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9713,7 +9717,7 @@
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9725,19 +9729,19 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9762,11 +9766,11 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9784,19 +9788,19 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
@@ -9805,10 +9809,10 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
@@ -9819,10 +9823,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9833,7 +9837,7 @@
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
@@ -9845,16 +9849,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9904,45 +9908,45 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9953,7 +9957,7 @@
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9965,16 +9969,16 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10024,45 +10028,45 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10085,19 +10089,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10146,7 +10150,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10158,7 +10162,7 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10167,10 +10171,10 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10181,10 +10185,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10195,7 +10199,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10207,13 +10211,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -10264,13 +10268,13 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
@@ -10288,7 +10292,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10299,14 +10303,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10325,16 +10329,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10384,7 +10388,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10396,7 +10400,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10408,7 +10412,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10419,14 +10423,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10439,25 +10443,25 @@
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10506,7 +10510,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10518,7 +10522,7 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -10530,7 +10534,7 @@
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10541,10 +10545,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10555,7 +10559,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10567,13 +10571,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10624,19 +10628,19 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10645,10 +10649,10 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10659,10 +10663,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10673,7 +10677,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10685,13 +10689,13 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10742,19 +10746,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10763,10 +10767,10 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10777,10 +10781,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10791,7 +10795,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10803,19 +10807,19 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10840,13 +10844,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10864,31 +10868,31 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10899,10 +10903,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10925,19 +10929,19 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10962,13 +10966,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10986,7 +10990,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10998,19 +11002,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11021,10 +11025,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11035,7 +11039,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -11047,17 +11051,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11106,19 +11110,19 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11130,7 +11134,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11141,10 +11145,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11155,7 +11159,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11167,13 +11171,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11224,19 +11228,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11245,10 +11249,10 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11259,10 +11263,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11282,19 +11286,19 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11344,7 +11348,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11356,7 +11360,7 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
@@ -11365,10 +11369,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11379,10 +11383,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11402,19 +11406,19 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11464,7 +11468,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11476,7 +11480,7 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
@@ -11485,10 +11489,10 @@
         <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11499,10 +11503,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11522,22 +11526,22 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11586,7 +11590,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11598,7 +11602,7 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
@@ -11607,10 +11611,10 @@
         <v>79</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11621,10 +11625,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11635,7 +11639,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11647,13 +11651,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11704,13 +11708,13 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
@@ -11728,7 +11732,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11739,14 +11743,14 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
@@ -11765,16 +11769,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11824,7 +11828,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11836,7 +11840,7 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11848,7 +11852,7 @@
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11859,14 +11863,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11879,25 +11883,25 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11946,7 +11950,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11958,7 +11962,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11970,7 +11974,7 @@
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11981,10 +11985,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11992,10 +11996,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12004,22 +12008,22 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -12044,13 +12048,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12068,34 +12072,34 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12103,10 +12107,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12117,7 +12121,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -12126,22 +12130,22 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12190,45 +12194,45 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12239,7 +12243,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -12251,19 +12255,19 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12288,13 +12292,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12312,19 +12316,19 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12333,10 +12337,10 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12347,14 +12351,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12373,19 +12377,19 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12410,31 +12414,31 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF85" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12446,33 +12450,33 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12495,19 +12499,19 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12556,7 +12560,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12568,7 +12572,7 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12577,10 +12581,10 @@
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -680,6 +680,86 @@
   </si>
   <si>
     <t>Other info collected from xml for which there is no corresponding element or extension in Fhir.</t>
+  </si>
+  <si>
+    <t>Observation.extension:investigationdate</t>
+  </si>
+  <si>
+    <t>investigationdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-investigation-date}
+</t>
+  </si>
+  <si>
+    <t>Investigation Date</t>
+  </si>
+  <si>
+    <t>Time the investigation was performed.</t>
+  </si>
+  <si>
+    <t>Observation.extension:statuschangedate</t>
+  </si>
+  <si>
+    <t>statuschangedate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-status-change-date}
+</t>
+  </si>
+  <si>
+    <t>Status Changed Date</t>
+  </si>
+  <si>
+    <t>Time of last state change.</t>
+  </si>
+  <si>
+    <t>Observation.extension:countersigndate</t>
+  </si>
+  <si>
+    <t>countersigndate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-counter-sign-date}
+</t>
+  </si>
+  <si>
+    <t>Counter Sign Date</t>
+  </si>
+  <si>
+    <t>Time the investigation was counter signed.</t>
+  </si>
+  <si>
+    <t>Observation.extension:medicalvalidationdate</t>
+  </si>
+  <si>
+    <t>medicalvalidationdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-medical-validation-date}
+</t>
+  </si>
+  <si>
+    <t>Medical Validation Date</t>
+  </si>
+  <si>
+    <t>Time of medical validation of the investigation.</t>
+  </si>
+  <si>
+    <t>Observation.extension:descriptiondate</t>
+  </si>
+  <si>
+    <t>descriptiondate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-description-date}
+</t>
+  </si>
+  <si>
+    <t>Description Date</t>
+  </si>
+  <si>
+    <t>Time for description of image-based investigation.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2197,7 +2277,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AP91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4772,43 +4852,41 @@
         <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D22" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4856,7 +4934,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4865,7 +4943,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>118</v>
@@ -4880,7 +4958,7 @@
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4894,9 +4972,11 @@
         <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4905,7 +4985,7 @@
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4914,21 +4994,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>222</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4976,7 +5054,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4985,25 +5063,25 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>79</v>
@@ -5011,12 +5089,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>224</v>
+      </c>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
@@ -5037,13 +5117,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5094,19 +5174,19 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -5118,7 +5198,7 @@
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -5132,18 +5212,20 @@
         <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -5155,17 +5237,15 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5202,19 +5282,19 @@
         <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5223,7 +5303,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>118</v>
@@ -5238,7 +5318,7 @@
         <v>79</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>79</v>
@@ -5249,12 +5329,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5269,26 +5351,22 @@
         <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5312,13 +5390,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5336,19 +5414,19 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>79</v>
@@ -5357,10 +5435,10 @@
         <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>237</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -5378,38 +5456,38 @@
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5434,13 +5512,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>245</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5458,19 +5536,19 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
@@ -5479,10 +5557,10 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5493,10 +5571,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5507,10 +5585,10 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>79</v>
@@ -5519,19 +5597,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5544,7 +5620,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5556,11 +5632,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5578,34 +5656,34 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5613,10 +5691,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5630,26 +5708,24 @@
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5662,7 +5738,7 @@
         <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>79</v>
@@ -5698,7 +5774,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5710,7 +5786,7 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
@@ -5719,10 +5795,10 @@
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5733,21 +5809,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5756,18 +5832,20 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5804,31 +5882,31 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5837,10 +5915,10 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5851,10 +5929,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5871,24 +5949,26 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5912,13 +5992,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5936,7 +6016,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5957,10 +6037,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5971,14 +6051,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5997,17 +6077,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O32" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6032,13 +6114,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -6056,13 +6138,13 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
@@ -6071,16 +6153,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>287</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6091,24 +6173,24 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -6117,18 +6199,20 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -6140,7 +6224,7 @@
         <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>79</v>
@@ -6152,13 +6236,11 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -6176,13 +6258,13 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
@@ -6191,16 +6273,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6211,10 +6293,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6222,35 +6304,33 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6262,7 +6342,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -6274,13 +6354,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>304</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6298,10 +6378,10 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>89</v>
@@ -6313,19 +6393,19 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>79</v>
@@ -6333,10 +6413,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6356,23 +6436,19 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
       </c>
@@ -6396,11 +6472,13 @@
         <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>79</v>
@@ -6418,13 +6496,13 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>79</v>
@@ -6439,13 +6517,13 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>79</v>
@@ -6453,18 +6531,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>320</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>89</v>
@@ -6479,20 +6557,18 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6516,11 +6592,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6538,10 +6616,10 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>89</v>
@@ -6553,34 +6631,34 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6590,7 +6668,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6599,19 +6677,17 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>334</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6660,13 +6736,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6675,19 +6751,19 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>79</v>
@@ -6695,21 +6771,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6718,18 +6794,20 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>104</v>
+        <v>318</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6778,31 +6856,31 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>107</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6813,44 +6891,46 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>111</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>112</v>
+        <v>326</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6874,58 +6954,58 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>79</v>
+        <v>329</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>331</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -6933,10 +7013,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6956,21 +7036,23 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6994,13 +7076,11 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -7018,16 +7098,16 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>101</v>
@@ -7042,10 +7122,10 @@
         <v>79</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -7053,18 +7133,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -7079,18 +7159,20 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7114,13 +7196,11 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7138,10 +7218,10 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>89</v>
@@ -7153,22 +7233,22 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>351</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>187</v>
+        <v>354</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7199,18 +7279,20 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>219</v>
+        <v>358</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7258,7 +7340,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7273,19 +7355,19 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>363</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>79</v>
@@ -7293,10 +7375,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7411,10 +7493,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7531,10 +7613,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7551,26 +7633,24 @@
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>230</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>231</v>
+        <v>371</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7594,13 +7674,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7618,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>236</v>
+        <v>373</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7627,7 +7707,7 @@
         <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>101</v>
@@ -7639,10 +7719,10 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7653,10 +7733,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7679,20 +7759,18 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>240</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>241</v>
+        <v>377</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
       </c>
@@ -7719,10 +7797,10 @@
         <v>147</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7740,7 +7818,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>246</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7761,10 +7839,10 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>237</v>
+        <v>187</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7775,10 +7853,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7801,20 +7879,18 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>249</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>250</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7826,7 +7902,7 @@
         <v>79</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>79</v>
@@ -7838,11 +7914,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7860,7 +7938,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>255</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7881,10 +7959,10 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>257</v>
+        <v>387</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7895,10 +7973,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7912,26 +7990,24 @@
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7944,7 +8020,7 @@
         <v>79</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>79</v>
@@ -7980,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7992,7 +8068,7 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8001,10 +8077,10 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>265</v>
+        <v>107</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8015,21 +8091,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8038,18 +8114,20 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8086,31 +8164,31 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>270</v>
+        <v>117</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8119,10 +8197,10 @@
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>271</v>
+        <v>79</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>79</v>
@@ -8133,10 +8211,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8153,24 +8231,26 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>274</v>
+        <v>164</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8194,13 +8274,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8218,7 +8298,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -8239,10 +8319,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8253,10 +8333,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8270,7 +8350,7 @@
         <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
@@ -8279,18 +8359,20 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>265</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8314,13 +8396,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8338,7 +8420,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8359,10 +8441,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8373,10 +8455,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8387,10 +8469,10 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
@@ -8399,18 +8481,20 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -8422,7 +8506,7 @@
         <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>79</v>
@@ -8434,13 +8518,11 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y52" s="2"/>
       <c r="Z52" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8458,13 +8540,13 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>377</v>
+        <v>280</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
@@ -8479,13 +8561,13 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>281</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>79</v>
@@ -8493,14 +8575,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8510,7 +8592,7 @@
         <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>79</v>
@@ -8519,20 +8601,18 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>103</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>284</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>285</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8544,7 +8624,7 @@
         <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>79</v>
@@ -8580,7 +8660,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>383</v>
+        <v>288</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8595,19 +8675,19 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>392</v>
+        <v>290</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>79</v>
@@ -8615,14 +8695,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8641,20 +8721,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>292</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8702,7 +8778,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>394</v>
+        <v>295</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8717,19 +8793,19 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>402</v>
+        <v>296</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>403</v>
+        <v>297</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8737,10 +8813,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8763,16 +8839,16 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>407</v>
+        <v>301</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>408</v>
+        <v>302</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8822,7 +8898,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8843,13 +8919,13 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>409</v>
+        <v>304</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>410</v>
+        <v>305</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8857,10 +8933,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8871,10 +8947,10 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
@@ -8883,18 +8959,18 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>413</v>
+        <v>103</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
       </c>
@@ -8942,13 +9018,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8957,19 +9033,19 @@
         <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>418</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>419</v>
+        <v>187</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8977,10 +9053,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8991,7 +9067,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -9003,20 +9079,18 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -9052,26 +9126,28 @@
         <v>79</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AC57" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>101</v>
@@ -9080,33 +9156,31 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>409</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9125,19 +9199,19 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>239</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -9162,11 +9236,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -9184,7 +9260,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -9193,40 +9269,40 @@
         <v>89</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>79</v>
+        <v>418</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>420</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9242,22 +9318,22 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>239</v>
+        <v>421</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9282,13 +9358,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9306,7 +9382,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9315,25 +9391,25 @@
         <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>79</v>
+        <v>429</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -9341,14 +9417,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9364,23 +9440,21 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9404,11 +9478,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>451</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9426,13 +9502,13 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
@@ -9444,27 +9520,27 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>79</v>
+        <v>436</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9484,22 +9560,20 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9548,7 +9622,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9563,19 +9637,19 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>79</v>
+        <v>445</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9583,10 +9657,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9606,21 +9680,23 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>239</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9644,31 +9720,29 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="AC62" s="2"/>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9677,7 +9751,7 @@
         <v>89</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
@@ -9686,29 +9760,31 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="D63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9726,22 +9802,22 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9770,7 +9846,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
@@ -9788,7 +9864,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9797,7 +9873,7 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>101</v>
@@ -9806,27 +9882,27 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9849,18 +9925,20 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>484</v>
+        <v>264</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9884,13 +9962,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9908,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9917,7 +9995,7 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>79</v>
+        <v>468</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -9926,31 +10004,31 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>489</v>
+        <v>187</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9969,18 +10047,20 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>493</v>
+        <v>264</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>474</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10004,13 +10084,11 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y65" s="2"/>
       <c r="Z65" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10028,13 +10106,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -10046,27 +10124,27 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>500</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10089,19 +10167,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10150,7 +10228,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10162,7 +10240,7 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>507</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -10171,10 +10249,10 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10185,10 +10263,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10211,15 +10289,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>104</v>
+        <v>490</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10244,13 +10324,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10268,7 +10348,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>106</v>
+        <v>489</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -10280,44 +10360,44 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>79</v>
+        <v>496</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>79</v>
+        <v>497</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>107</v>
+        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>79</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10329,18 +10409,20 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>111</v>
+        <v>501</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>112</v>
+        <v>502</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>503</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>504</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10364,13 +10446,11 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y68" s="2"/>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10388,19 +10468,19 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>117</v>
+        <v>500</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10409,10 +10489,10 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>107</v>
+        <v>507</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -10423,46 +10503,44 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>110</v>
+        <v>509</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10510,37 +10588,37 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP69" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -10579,7 +10657,9 @@
       <c r="M70" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>521</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -10637,7 +10717,7 @@
         <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>101</v>
@@ -10646,27 +10726,27 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>79</v>
+        <v>525</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10677,7 +10757,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10689,16 +10769,20 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>531</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10746,19 +10830,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>101</v>
+        <v>532</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10767,10 +10851,10 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10781,10 +10865,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10807,20 +10891,16 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>529</v>
+        <v>104</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10844,13 +10924,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>533</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>534</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10868,7 +10948,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>528</v>
+        <v>106</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10880,19 +10960,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10903,14 +10983,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10929,20 +11009,18 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>538</v>
+        <v>111</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>539</v>
+        <v>112</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>541</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10966,13 +11044,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>542</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>543</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10990,7 +11068,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>537</v>
+        <v>117</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -11002,19 +11080,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>535</v>
+        <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>536</v>
+        <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -11025,43 +11103,45 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>545</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>548</v>
+        <v>241</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11110,19 +11190,19 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
@@ -11134,7 +11214,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>549</v>
+        <v>187</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11145,10 +11225,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11171,13 +11251,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>103</v>
+        <v>543</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11228,7 +11308,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -11237,7 +11317,7 @@
         <v>89</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>101</v>
@@ -11249,10 +11329,10 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>522</v>
+        <v>547</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11263,10 +11343,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11277,7 +11357,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -11286,20 +11366,18 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>558</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11348,16 +11426,16 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>79</v>
+        <v>546</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>101</v>
@@ -11369,10 +11447,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11383,10 +11461,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11397,7 +11475,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11406,21 +11484,23 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>562</v>
+        <v>264</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11444,13 +11524,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>79</v>
+        <v>558</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11468,13 +11548,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -11486,13 +11566,13 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11503,10 +11583,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11526,22 +11606,22 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>502</v>
+        <v>264</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11566,13 +11646,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>567</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>79</v>
+        <v>568</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11590,7 +11670,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11608,13 +11688,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>560</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>573</v>
+        <v>479</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11625,10 +11705,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11651,16 +11731,18 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>103</v>
+        <v>570</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>104</v>
+        <v>571</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>105</v>
+        <v>572</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
       </c>
@@ -11708,7 +11790,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>106</v>
+        <v>569</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -11720,7 +11802,7 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
@@ -11732,7 +11814,7 @@
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>107</v>
+        <v>574</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11750,14 +11832,14 @@
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11769,17 +11851,15 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>111</v>
+        <v>576</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11828,19 +11908,19 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>117</v>
+        <v>575</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
@@ -11849,10 +11929,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>79</v>
+        <v>547</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>107</v>
+        <v>578</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11863,14 +11943,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11883,26 +11963,24 @@
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11950,7 +12028,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11962,7 +12040,7 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11971,10 +12049,10 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>584</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>187</v>
+        <v>585</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11985,10 +12063,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11996,10 +12074,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -12011,20 +12089,18 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>587</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -12048,13 +12124,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>581</v>
+        <v>79</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>582</v>
+        <v>79</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -12072,13 +12148,13 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -12090,16 +12166,16 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>328</v>
+        <v>584</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>329</v>
+        <v>591</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>79</v>
@@ -12107,10 +12183,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12121,7 +12197,7 @@
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -12133,19 +12209,19 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>585</v>
+        <v>527</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>424</v>
+        <v>594</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>426</v>
+        <v>596</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -12194,13 +12270,13 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
@@ -12212,27 +12288,27 @@
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>588</v>
+        <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>430</v>
+        <v>597</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>431</v>
+        <v>598</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>432</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12255,20 +12331,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>590</v>
+        <v>104</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12292,13 +12364,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -12316,7 +12388,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>589</v>
+        <v>106</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -12325,10 +12397,10 @@
         <v>89</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12337,10 +12409,10 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>444</v>
+        <v>107</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12351,14 +12423,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>446</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12377,20 +12449,18 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>239</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>447</v>
+        <v>111</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12414,13 +12484,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>594</v>
+        <v>79</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>595</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12438,7 +12508,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>593</v>
+        <v>117</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -12450,37 +12520,37 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>454</v>
+        <v>107</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12493,25 +12563,25 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>597</v>
+        <v>539</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>505</v>
+        <v>113</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>506</v>
+        <v>241</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12560,7 +12630,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>596</v>
+        <v>541</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12572,29 +12642,639 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP86" t="s" s="2">
+      <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP86">
+  <autoFilter ref="A1:AP91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12604,7 +13284,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3504" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -760,6 +760,22 @@
   </si>
   <si>
     <t>Time for description of image-based investigation.</t>
+  </si>
+  <si>
+    <t>Observation.extension:restriction</t>
+  </si>
+  <si>
+    <t>restriction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-restriction}
+</t>
+  </si>
+  <si>
+    <t>Restriction</t>
+  </si>
+  <si>
+    <t>Used on DiagnisticReport and Observation to convey a restriction. Not applicable for restrictions that apply to the requesting person, such restrictions results in the datat not being provided at all.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -2277,7 +2293,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP91"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5452,11 +5468,13 @@
         <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5469,26 +5487,22 @@
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5536,7 +5550,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5545,7 +5559,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>118</v>
@@ -5560,7 +5574,7 @@
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5578,7 +5592,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5591,23 +5605,25 @@
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5656,7 +5672,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5668,22 +5684,22 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>250</v>
+        <v>187</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>79</v>
@@ -5691,10 +5707,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5705,7 +5721,7 @@
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5714,19 +5730,21 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5774,13 +5792,13 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
@@ -5789,19 +5807,19 @@
         <v>79</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>107</v>
+        <v>255</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>79</v>
@@ -5809,21 +5827,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5835,17 +5853,15 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5882,31 +5898,31 @@
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
@@ -5929,46 +5945,44 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
       </c>
@@ -5992,43 +6006,43 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
@@ -6037,10 +6051,10 @@
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -6051,10 +6065,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6071,25 +6085,25 @@
         <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -6114,13 +6128,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -6138,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -6159,10 +6173,10 @@
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -6173,10 +6187,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6190,7 +6204,7 @@
         <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -6199,19 +6213,19 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>79</v>
@@ -6224,7 +6238,7 @@
         <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
         <v>79</v>
@@ -6236,11 +6250,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y33" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Z33" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -6258,7 +6274,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6279,10 +6295,10 @@
         <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6293,10 +6309,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6319,18 +6335,20 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>79</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>79</v>
@@ -6354,13 +6372,11 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -6378,7 +6394,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6399,10 +6415,10 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
@@ -6413,10 +6429,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6430,7 +6446,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -6439,15 +6455,17 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6460,7 +6478,7 @@
         <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>79</v>
@@ -6496,7 +6514,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6517,10 +6535,10 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>79</v>
@@ -6531,10 +6549,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6557,17 +6575,15 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6616,7 +6632,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6637,10 +6653,10 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6651,14 +6667,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6677,18 +6693,18 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6736,13 +6752,13 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
@@ -6751,16 +6767,16 @@
         <v>101</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6771,21 +6787,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6797,18 +6813,18 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6856,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6871,16 +6887,16 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>79</v>
@@ -6891,46 +6907,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>328</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6954,13 +6968,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6978,13 +6992,13 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
@@ -6993,19 +7007,19 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>79</v>
@@ -7013,10 +7027,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7024,7 +7038,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>89</v>
@@ -7033,25 +7047,25 @@
         <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -7078,9 +7092,11 @@
       <c r="X40" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y40" s="2"/>
+      <c r="Y40" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="Z40" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -7098,13 +7114,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -7113,19 +7129,19 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -7133,18 +7149,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -7156,22 +7172,22 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -7200,7 +7216,7 @@
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -7218,13 +7234,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -7233,44 +7249,44 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>79</v>
+        <v>350</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>79</v>
@@ -7279,19 +7295,19 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>358</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -7316,13 +7332,11 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -7340,10 +7354,10 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>89</v>
@@ -7355,30 +7369,30 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7392,25 +7406,29 @@
         <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7458,7 +7476,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>362</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -7470,22 +7488,22 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>107</v>
+        <v>370</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>79</v>
@@ -7493,21 +7511,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7519,17 +7537,15 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -7566,31 +7582,31 @@
         <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
@@ -7613,21 +7629,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7636,19 +7652,19 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>372</v>
+        <v>113</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7686,31 +7702,31 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>117</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
@@ -7722,7 +7738,7 @@
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7733,10 +7749,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7759,16 +7775,16 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7794,13 +7810,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7818,7 +7834,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7827,7 +7843,7 @@
         <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>101</v>
@@ -7853,10 +7869,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7870,7 +7886,7 @@
         <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
@@ -7879,16 +7895,16 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>244</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7914,13 +7930,13 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>79</v>
+        <v>385</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>79</v>
@@ -7962,7 +7978,7 @@
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>387</v>
+        <v>187</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>79</v>
@@ -7973,10 +7989,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7990,24 +8006,26 @@
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -8056,7 +8074,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -8068,7 +8086,7 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -8080,7 +8098,7 @@
         <v>79</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>107</v>
+        <v>392</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>79</v>
@@ -8091,21 +8109,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -8117,17 +8135,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8164,31 +8180,31 @@
         <v>79</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
@@ -8211,46 +8227,44 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>256</v>
+        <v>112</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8274,43 +8288,43 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>261</v>
+        <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -8319,10 +8333,10 @@
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>262</v>
+        <v>107</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -8333,10 +8347,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8353,25 +8367,25 @@
         <v>79</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>264</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8396,13 +8410,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8420,7 +8434,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -8441,10 +8455,10 @@
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8455,10 +8469,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8472,7 +8486,7 @@
         <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>79</v>
@@ -8481,19 +8495,19 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8506,7 +8520,7 @@
         <v>79</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>278</v>
+        <v>79</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>79</v>
@@ -8518,11 +8532,13 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>393</v>
+        <v>275</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>79</v>
@@ -8540,7 +8556,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -8561,10 +8577,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8575,10 +8591,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8601,18 +8617,20 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8624,7 +8642,7 @@
         <v>79</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>79</v>
@@ -8636,13 +8654,11 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8660,7 +8676,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8681,10 +8697,10 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8695,10 +8711,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8712,7 +8728,7 @@
         <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>79</v>
@@ -8721,15 +8737,17 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>292</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8742,7 +8760,7 @@
         <v>79</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>79</v>
@@ -8778,7 +8796,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8799,10 +8817,10 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8813,10 +8831,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8839,17 +8857,15 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8898,7 +8914,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8919,10 +8935,10 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8933,10 +8949,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8950,7 +8966,7 @@
         <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>79</v>
@@ -8959,16 +8975,16 @@
         <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>398</v>
+        <v>305</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>400</v>
+        <v>307</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9018,7 +9034,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>401</v>
+        <v>308</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9039,10 +9055,10 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>187</v>
+        <v>310</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>79</v>
@@ -9067,10 +9083,10 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>79</v>
@@ -9079,16 +9095,16 @@
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9138,13 +9154,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -9159,13 +9175,13 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>407</v>
+        <v>187</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -9173,21 +9189,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9199,20 +9215,18 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -9260,13 +9274,13 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
@@ -9275,19 +9289,19 @@
         <v>101</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>415</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>416</v>
+        <v>358</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>418</v>
+        <v>371</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -9295,14 +9309,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -9321,19 +9335,19 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9382,7 +9396,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9397,19 +9411,19 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -9417,14 +9431,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9443,18 +9457,20 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>125</v>
+        <v>426</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9502,7 +9518,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9517,19 +9533,19 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9537,10 +9553,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9551,7 +9567,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9563,18 +9579,18 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" t="s" s="2">
-        <v>441</v>
-      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9622,13 +9638,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -9637,19 +9653,19 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>79</v>
@@ -9657,10 +9673,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9671,7 +9687,7 @@
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9683,19 +9699,17 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9732,59 +9746,59 @@
         <v>79</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AC62" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>79</v>
+        <v>450</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9805,19 +9819,19 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>264</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9842,29 +9856,29 @@
         <v>79</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y63" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z63" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9873,7 +9887,7 @@
         <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>101</v>
@@ -9882,29 +9896,31 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9922,22 +9938,22 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9962,13 +9978,11 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>466</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9986,7 +10000,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9995,7 +10009,7 @@
         <v>89</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>101</v>
@@ -10004,31 +10018,31 @@
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>187</v>
+        <v>460</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -10047,19 +10061,19 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10084,11 +10098,13 @@
         <v>79</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -10106,16 +10122,16 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
@@ -10124,38 +10140,38 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>478</v>
+        <v>187</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -10167,19 +10183,19 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>482</v>
+        <v>269</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10204,13 +10220,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10228,7 +10242,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -10246,27 +10260,27 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>79</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10277,7 +10291,7 @@
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -10289,18 +10303,20 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>487</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="N67" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -10324,13 +10340,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10348,13 +10364,13 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
@@ -10366,27 +10382,27 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>496</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10409,20 +10425,18 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10446,11 +10460,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y68" s="2"/>
+        <v>498</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>499</v>
+      </c>
       <c r="Z68" t="s" s="2">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -10468,7 +10484,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10486,27 +10502,27 @@
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>79</v>
+        <v>501</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>79</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10529,18 +10545,20 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -10564,13 +10582,11 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>510</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -10588,7 +10604,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10606,27 +10622,27 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>516</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10649,16 +10665,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10708,7 +10724,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10726,27 +10742,27 @@
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10757,7 +10773,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10769,20 +10785,18 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>531</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10830,45 +10844,45 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>532</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>527</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>79</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10879,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10891,16 +10905,20 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>103</v>
+        <v>532</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>104</v>
+        <v>533</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>536</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10948,19 +10966,19 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>106</v>
+        <v>531</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>79</v>
+        <v>537</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
@@ -10969,10 +10987,10 @@
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>79</v>
+        <v>538</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>107</v>
+        <v>539</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10983,21 +11001,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -11009,17 +11027,15 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -11068,19 +11084,19 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
@@ -11103,14 +11119,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11123,26 +11139,24 @@
         <v>79</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>539</v>
+        <v>111</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>540</v>
+        <v>112</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
       </c>
@@ -11190,7 +11204,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>541</v>
+        <v>117</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -11214,7 +11228,7 @@
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11232,26 +11246,26 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>543</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>544</v>
@@ -11259,8 +11273,12 @@
       <c r="M75" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -11308,19 +11326,19 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>546</v>
+        <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11329,10 +11347,10 @@
         <v>79</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>548</v>
+        <v>187</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
@@ -11343,10 +11361,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11369,13 +11387,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11426,7 +11444,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11435,7 +11453,7 @@
         <v>89</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>101</v>
@@ -11447,10 +11465,10 @@
         <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
@@ -11461,10 +11479,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11487,20 +11505,16 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>264</v>
+        <v>548</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N77" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="O77" t="s" s="2">
-        <v>557</v>
-      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11524,13 +11538,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>558</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>559</v>
+        <v>79</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -11548,7 +11562,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -11557,7 +11571,7 @@
         <v>89</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>101</v>
@@ -11566,13 +11580,13 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>560</v>
+        <v>79</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11583,10 +11597,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11597,7 +11611,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11609,19 +11623,19 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11646,13 +11660,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>493</v>
+        <v>168</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -11670,13 +11684,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11688,13 +11702,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11705,10 +11719,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11719,7 +11733,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11731,17 +11745,19 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="N79" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="O79" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11766,13 +11782,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>572</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>573</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11790,13 +11806,13 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
@@ -11808,13 +11824,13 @@
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>79</v>
+        <v>565</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>79</v>
+        <v>566</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>574</v>
+        <v>484</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11825,10 +11841,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11851,7 +11867,7 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>103</v>
+        <v>575</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>576</v>
@@ -11860,7 +11876,9 @@
         <v>577</v>
       </c>
       <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11908,7 +11926,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11929,10 +11947,10 @@
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11943,10 +11961,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11957,7 +11975,7 @@
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11966,10 +11984,10 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>581</v>
@@ -11977,9 +11995,7 @@
       <c r="M81" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="N81" t="s" s="2">
-        <v>583</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -12028,13 +12044,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -12049,10 +12065,10 @@
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -12063,10 +12079,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12089,16 +12105,16 @@
         <v>90</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>587</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12148,7 +12164,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -12169,10 +12185,10 @@
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -12183,10 +12199,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12209,7 +12225,7 @@
         <v>90</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>593</v>
@@ -12220,9 +12236,7 @@
       <c r="N83" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="O83" t="s" s="2">
-        <v>596</v>
-      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12270,7 +12284,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12291,10 +12305,10 @@
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12305,10 +12319,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12319,7 +12333,7 @@
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -12328,19 +12342,23 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>103</v>
+        <v>532</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>104</v>
+        <v>598</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>599</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12388,19 +12406,19 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>106</v>
+        <v>597</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
@@ -12409,10 +12427,10 @@
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>79</v>
+        <v>602</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>107</v>
+        <v>603</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12423,21 +12441,21 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
@@ -12449,17 +12467,15 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
@@ -12508,19 +12524,19 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
@@ -12543,14 +12559,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>538</v>
+        <v>109</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12563,26 +12579,24 @@
         <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>539</v>
+        <v>111</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>540</v>
+        <v>112</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O86" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
       </c>
@@ -12630,7 +12644,7 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>541</v>
+        <v>117</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12654,7 +12668,7 @@
         <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>79</v>
@@ -12665,45 +12679,45 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>603</v>
+        <v>544</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>604</v>
+        <v>545</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>605</v>
+        <v>113</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>349</v>
+        <v>246</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -12728,13 +12742,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>493</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>606</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -12752,34 +12766,34 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>602</v>
+        <v>546</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>608</v>
+        <v>79</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>354</v>
+        <v>187</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>79</v>
@@ -12787,10 +12801,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12798,7 +12812,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>89</v>
@@ -12813,19 +12827,19 @@
         <v>90</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>610</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>612</v>
-      </c>
       <c r="O88" t="s" s="2">
-        <v>451</v>
+        <v>354</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -12850,13 +12864,13 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>79</v>
+        <v>498</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>79</v>
+        <v>611</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>79</v>
+        <v>612</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -12874,10 +12888,10 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>89</v>
@@ -12895,16 +12909,16 @@
         <v>613</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>455</v>
+        <v>358</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>456</v>
+        <v>359</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" hidden="true">
@@ -12932,22 +12946,22 @@
         <v>79</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>264</v>
+        <v>615</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>616</v>
+        <v>454</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>617</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
@@ -12972,13 +12986,13 @@
         <v>79</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>466</v>
+        <v>79</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>79</v>
@@ -13005,7 +13019,7 @@
         <v>89</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>101</v>
@@ -13014,38 +13028,38 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>79</v>
+        <v>618</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>187</v>
+        <v>460</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>79</v>
@@ -13057,19 +13071,19 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>472</v>
+        <v>620</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>473</v>
+        <v>621</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>474</v>
+        <v>622</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -13097,37 +13111,37 @@
         <v>147</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>101</v>
@@ -13136,31 +13150,31 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>478</v>
+        <v>187</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>79</v>
+        <v>476</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13179,19 +13193,19 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>622</v>
+        <v>477</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>623</v>
+        <v>478</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>530</v>
+        <v>479</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>531</v>
+        <v>480</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13216,13 +13230,13 @@
         <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>624</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>79</v>
+        <v>625</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -13240,7 +13254,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -13258,23 +13272,145 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>533</v>
+        <v>483</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>534</v>
+        <v>484</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP91" t="s" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP91">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13284,7 +13420,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="631">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -751,22 +751,6 @@
   </si>
   <si>
     <t>Time for description of image-based investigation.</t>
-  </si>
-  <si>
-    <t>Observation.extension:restriction</t>
-  </si>
-  <si>
-    <t>restriction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-restriction}
-</t>
-  </si>
-  <si>
-    <t>Restriction</t>
-  </si>
-  <si>
-    <t>Used on DiagnisticReport and Observation to convey a restriction. Not applicable for restrictions that apply to the requesting person, such restrictions results in the datat not being provided at all.</t>
   </si>
   <si>
     <t>Observation.extension:specification</t>
@@ -2324,7 +2308,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP93"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5392,7 +5376,7 @@
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -5619,41 +5603,43 @@
         <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="C28" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="N28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>19</v>
       </c>
@@ -5701,7 +5687,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5710,7 +5696,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>120</v>
@@ -5725,7 +5711,7 @@
         <v>19</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5743,7 +5729,7 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5756,25 +5742,23 @@
         <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J29" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5823,7 +5807,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5835,22 +5819,22 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>19</v>
+        <v>255</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>19</v>
@@ -5858,10 +5842,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5872,7 +5856,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -5881,21 +5865,19 @@
         <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>19</v>
       </c>
@@ -5943,34 +5925,34 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>108</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>262</v>
+        <v>109</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>263</v>
+        <v>19</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>19</v>
@@ -5978,21 +5960,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -6004,15 +5986,17 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -6049,31 +6033,31 @@
         <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -6096,44 +6080,46 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
       </c>
@@ -6157,43 +6143,43 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -6202,10 +6188,10 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -6216,10 +6202,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6236,25 +6222,25 @@
         <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -6279,13 +6265,13 @@
         <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>19</v>
@@ -6303,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6324,10 +6310,10 @@
         <v>19</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
@@ -6338,10 +6324,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6355,7 +6341,7 @@
         <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>19</v>
@@ -6364,19 +6350,19 @@
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -6389,7 +6375,7 @@
         <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>19</v>
@@ -6401,13 +6387,11 @@
         <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>19</v>
@@ -6425,7 +6409,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6446,10 +6430,10 @@
         <v>19</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -6460,10 +6444,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6486,20 +6470,18 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>19</v>
       </c>
@@ -6511,7 +6493,7 @@
         <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>19</v>
@@ -6523,11 +6505,13 @@
         <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>291</v>
+        <v>19</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>19</v>
@@ -6545,7 +6529,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6566,10 +6550,10 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6580,10 +6564,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6597,7 +6581,7 @@
         <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>19</v>
@@ -6606,17 +6590,15 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>19</v>
@@ -6629,7 +6611,7 @@
         <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="U36" t="s" s="2">
         <v>19</v>
@@ -6665,7 +6647,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6686,10 +6668,10 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -6700,10 +6682,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6726,15 +6708,17 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6783,7 +6767,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6804,10 +6788,10 @@
         <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6818,14 +6802,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>19</v>
+        <v>314</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6844,18 +6828,18 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
       </c>
@@ -6903,13 +6887,13 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
@@ -6918,16 +6902,16 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>19</v>
+        <v>319</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6938,21 +6922,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6964,18 +6948,18 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
       </c>
@@ -7023,7 +7007,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -7038,16 +7022,16 @@
         <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -7058,44 +7042,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>19</v>
       </c>
@@ -7119,13 +7105,13 @@
         <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>19</v>
+        <v>336</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>19</v>
+        <v>337</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>19</v>
@@ -7143,13 +7129,13 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>19</v>
@@ -7158,19 +7144,19 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>19</v>
+        <v>339</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>19</v>
@@ -7178,10 +7164,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7189,7 +7175,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7198,25 +7184,25 @@
         <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -7243,11 +7229,9 @@
       <c r="X41" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>341</v>
-      </c>
+      <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -7265,13 +7249,13 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>19</v>
@@ -7280,19 +7264,19 @@
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>345</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>19</v>
@@ -7300,18 +7284,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>19</v>
+        <v>352</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
@@ -7323,22 +7307,22 @@
         <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -7367,7 +7351,7 @@
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>19</v>
@@ -7385,13 +7369,13 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>19</v>
@@ -7400,44 +7384,44 @@
         <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>19</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>19</v>
+        <v>363</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>19</v>
@@ -7446,19 +7430,19 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -7483,11 +7467,13 @@
         <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y43" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>19</v>
@@ -7505,10 +7491,10 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>91</v>
@@ -7520,30 +7506,30 @@
         <v>103</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>364</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>368</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7557,29 +7543,25 @@
         <v>91</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>370</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>371</v>
+        <v>106</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>374</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
       </c>
@@ -7627,7 +7609,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7639,22 +7621,22 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>377</v>
+        <v>109</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>19</v>
@@ -7662,21 +7644,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7688,15 +7670,17 @@
         <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>19</v>
@@ -7733,31 +7717,31 @@
         <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -7780,21 +7764,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7803,19 +7787,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>114</v>
+        <v>378</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7853,31 +7837,31 @@
         <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>119</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>381</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7889,7 +7873,7 @@
         <v>19</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7900,10 +7884,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7926,16 +7910,16 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7961,13 +7945,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>19</v>
+        <v>386</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>19</v>
+        <v>387</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -7985,7 +7969,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7994,7 +7978,7 @@
         <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>386</v>
+        <v>19</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>103</v>
@@ -8020,10 +8004,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8037,7 +8021,7 @@
         <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>19</v>
@@ -8046,16 +8030,16 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8081,13 +8065,13 @@
         <v>19</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>391</v>
+        <v>19</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>19</v>
@@ -8129,7 +8113,7 @@
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
@@ -8140,10 +8124,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8157,26 +8141,24 @@
         <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>256</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>106</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -8225,7 +8207,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>398</v>
+        <v>108</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8237,7 +8219,7 @@
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
@@ -8249,7 +8231,7 @@
         <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>399</v>
+        <v>109</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -8260,21 +8242,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
@@ -8286,15 +8268,17 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -8331,31 +8315,31 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -8378,44 +8362,46 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>113</v>
+        <v>262</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
       </c>
@@ -8439,43 +8425,43 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>19</v>
+        <v>266</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>19</v>
+        <v>267</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>119</v>
+        <v>268</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
@@ -8484,10 +8470,10 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>19</v>
@@ -8498,10 +8484,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8518,25 +8504,25 @@
         <v>19</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8561,13 +8547,13 @@
         <v>19</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>19</v>
@@ -8585,7 +8571,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8606,10 +8592,10 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>19</v>
@@ -8620,10 +8606,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8637,7 +8623,7 @@
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>19</v>
@@ -8646,19 +8632,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8671,7 +8657,7 @@
         <v>19</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>19</v>
+        <v>285</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>19</v>
@@ -8683,13 +8669,11 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8707,7 +8691,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8728,10 +8712,10 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8742,10 +8726,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8768,20 +8752,18 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>19</v>
       </c>
@@ -8793,7 +8775,7 @@
         <v>19</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>19</v>
@@ -8805,11 +8787,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8827,7 +8811,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8848,10 +8832,10 @@
         <v>19</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -8862,10 +8846,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8879,7 +8863,7 @@
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>19</v>
@@ -8888,17 +8872,15 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>105</v>
+        <v>299</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8911,7 +8893,7 @@
         <v>19</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>299</v>
+        <v>19</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>19</v>
@@ -8947,7 +8929,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8968,10 +8950,10 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
@@ -8982,10 +8964,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9008,15 +8990,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -9065,7 +9049,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -9086,10 +9070,10 @@
         <v>19</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>19</v>
@@ -9100,10 +9084,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9117,7 +9101,7 @@
         <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>19</v>
@@ -9126,16 +9110,16 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>314</v>
+        <v>407</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9185,7 +9169,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>315</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9206,10 +9190,10 @@
         <v>19</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>316</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>317</v>
+        <v>189</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
@@ -9234,10 +9218,10 @@
         <v>79</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>19</v>
@@ -9246,16 +9230,16 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>105</v>
+        <v>410</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9305,13 +9289,13 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>19</v>
@@ -9326,13 +9310,13 @@
         <v>19</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>189</v>
+        <v>414</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>19</v>
+        <v>373</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>19</v>
@@ -9340,21 +9324,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>19</v>
+        <v>416</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>19</v>
@@ -9366,18 +9350,20 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
       </c>
@@ -9425,13 +9411,13 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>19</v>
@@ -9440,19 +9426,19 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>19</v>
+        <v>422</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>378</v>
+        <v>425</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>19</v>
@@ -9460,14 +9446,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9486,19 +9472,19 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9547,7 +9533,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9562,19 +9548,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>19</v>
@@ -9582,14 +9568,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9608,20 +9594,18 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>433</v>
+        <v>127</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>19</v>
       </c>
@@ -9669,7 +9653,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9684,19 +9668,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>438</v>
+        <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>19</v>
@@ -9704,10 +9688,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9718,7 +9702,7 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>19</v>
@@ -9730,18 +9714,18 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>127</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>19</v>
       </c>
@@ -9789,13 +9773,13 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>19</v>
@@ -9804,19 +9788,19 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>19</v>
+        <v>449</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>19</v>
@@ -9824,10 +9808,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9838,7 +9822,7 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>19</v>
@@ -9850,17 +9834,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>19</v>
@@ -9897,59 +9883,59 @@
         <v>19</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>454</v>
+        <v>19</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>457</v>
+        <v>19</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>19</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>19</v>
       </c>
@@ -9970,19 +9956,19 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>271</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>19</v>
@@ -10007,29 +9993,29 @@
         <v>19</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>19</v>
+        <v>467</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -10038,7 +10024,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10047,31 +10033,29 @@
         <v>19</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>19</v>
       </c>
@@ -10089,22 +10073,22 @@
         <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -10129,11 +10113,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y65" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Z65" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -10151,7 +10137,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10160,7 +10146,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10169,31 +10155,31 @@
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10212,19 +10198,19 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -10249,13 +10235,11 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -10273,16 +10257,16 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10291,38 +10275,38 @@
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>19</v>
+        <v>484</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>19</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>19</v>
@@ -10334,19 +10318,19 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>276</v>
+        <v>489</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -10371,29 +10355,31 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10411,27 +10397,27 @@
         <v>19</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>492</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10442,7 +10428,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>19</v>
@@ -10454,20 +10440,18 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>494</v>
+        <v>271</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -10491,13 +10475,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>19</v>
+        <v>502</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -10515,13 +10499,13 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>19</v>
@@ -10533,27 +10517,27 @@
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>19</v>
+        <v>503</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>19</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10576,18 +10560,20 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10611,31 +10597,29 @@
         <v>19</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>506</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10653,27 +10637,27 @@
         <v>19</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>508</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>511</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10696,20 +10680,18 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>276</v>
+        <v>516</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10733,11 +10715,13 @@
         <v>19</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>517</v>
+        <v>19</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>19</v>
@@ -10755,7 +10739,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10773,27 +10757,27 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>19</v>
+        <v>520</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>19</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10816,16 +10800,16 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10875,7 +10859,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10893,27 +10877,27 @@
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10924,7 +10908,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>19</v>
@@ -10936,18 +10920,20 @@
         <v>19</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>537</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
       </c>
@@ -10995,45 +10981,45 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>103</v>
+        <v>539</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>534</v>
+        <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>537</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11044,7 +11030,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>19</v>
@@ -11056,20 +11042,16 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>539</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>19</v>
       </c>
@@ -11117,19 +11099,19 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>538</v>
+        <v>108</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>544</v>
+        <v>19</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>19</v>
@@ -11138,10 +11120,10 @@
         <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>546</v>
+        <v>109</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>19</v>
@@ -11152,21 +11134,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>19</v>
@@ -11178,15 +11160,17 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -11235,19 +11219,19 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>19</v>
@@ -11270,14 +11254,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>111</v>
+        <v>545</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11290,24 +11274,26 @@
         <v>19</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>113</v>
+        <v>546</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
       </c>
@@ -11355,7 +11341,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>119</v>
+        <v>548</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11379,7 +11365,7 @@
         <v>19</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>19</v>
@@ -11397,26 +11383,26 @@
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>550</v>
+        <v>19</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>112</v>
+        <v>550</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>551</v>
@@ -11424,12 +11410,8 @@
       <c r="M76" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>253</v>
-      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>19</v>
       </c>
@@ -11477,19 +11459,19 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI76" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="AG76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ76" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>19</v>
@@ -11498,10 +11480,10 @@
         <v>19</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>19</v>
+        <v>554</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>189</v>
+        <v>555</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>19</v>
@@ -11512,10 +11494,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11538,13 +11520,13 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11595,7 +11577,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11604,7 +11586,7 @@
         <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>103</v>
@@ -11616,10 +11598,10 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
@@ -11630,10 +11612,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11656,16 +11638,20 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>555</v>
+        <v>271</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
       </c>
@@ -11689,13 +11675,13 @@
         <v>19</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>19</v>
+        <v>565</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>19</v>
+        <v>566</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>19</v>
@@ -11713,7 +11699,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11722,7 +11708,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>558</v>
+        <v>19</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11731,13 +11717,13 @@
         <v>19</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>19</v>
+        <v>567</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>19</v>
@@ -11748,10 +11734,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11762,7 +11748,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>19</v>
@@ -11774,19 +11760,19 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>19</v>
@@ -11811,13 +11797,13 @@
         <v>19</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>170</v>
+        <v>500</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>19</v>
@@ -11835,13 +11821,13 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>19</v>
@@ -11853,13 +11839,13 @@
         <v>19</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>19</v>
@@ -11870,10 +11856,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11884,7 +11870,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>19</v>
@@ -11896,19 +11882,17 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>276</v>
+        <v>577</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>577</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11933,13 +11917,13 @@
         <v>19</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>579</v>
+        <v>19</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>580</v>
+        <v>19</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>19</v>
@@ -11957,13 +11941,13 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>19</v>
@@ -11975,13 +11959,13 @@
         <v>19</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>572</v>
+        <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>573</v>
+        <v>19</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>491</v>
+        <v>581</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>19</v>
@@ -11992,10 +11976,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12018,7 +12002,7 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>583</v>
@@ -12027,9 +12011,7 @@
         <v>584</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>585</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>19</v>
       </c>
@@ -12077,7 +12059,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12098,10 +12080,10 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>19</v>
+        <v>554</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>19</v>
@@ -12112,10 +12094,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12126,7 +12108,7 @@
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>19</v>
@@ -12135,10 +12117,10 @@
         <v>19</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>588</v>
@@ -12146,7 +12128,9 @@
       <c r="M82" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>19</v>
@@ -12195,13 +12179,13 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>19</v>
@@ -12216,10 +12200,10 @@
         <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>19</v>
@@ -12230,10 +12214,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12256,16 +12240,16 @@
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12315,7 +12299,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12336,10 +12320,10 @@
         <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>19</v>
@@ -12350,10 +12334,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12376,7 +12360,7 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>599</v>
+        <v>534</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>600</v>
@@ -12387,7 +12371,9 @@
       <c r="N84" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="O84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>19</v>
       </c>
@@ -12435,7 +12421,7 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12456,10 +12442,10 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>19</v>
@@ -12470,10 +12456,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12484,7 +12470,7 @@
         <v>79</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>19</v>
@@ -12493,23 +12479,19 @@
         <v>19</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>539</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>605</v>
+        <v>106</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>19</v>
       </c>
@@ -12557,19 +12539,19 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>604</v>
+        <v>108</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>19</v>
@@ -12578,10 +12560,10 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>609</v>
+        <v>19</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>610</v>
+        <v>109</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>19</v>
@@ -12592,21 +12574,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>19</v>
@@ -12618,15 +12600,17 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>19</v>
@@ -12675,19 +12659,19 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
@@ -12710,14 +12694,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>111</v>
+        <v>545</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12730,24 +12714,26 @@
         <v>19</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>113</v>
+        <v>546</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>114</v>
+        <v>547</v>
       </c>
       <c r="N87" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="O87" s="2"/>
+      <c r="O87" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
       </c>
@@ -12795,7 +12781,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>119</v>
+        <v>548</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12819,7 +12805,7 @@
         <v>19</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>19</v>
@@ -12830,45 +12816,45 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>550</v>
+        <v>19</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>551</v>
+        <v>610</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>552</v>
+        <v>611</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>115</v>
+        <v>612</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>253</v>
+        <v>356</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -12893,13 +12879,13 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>19</v>
+        <v>500</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>19</v>
+        <v>613</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>19</v>
+        <v>614</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12917,34 +12903,34 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>553</v>
+        <v>609</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>19</v>
+        <v>615</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>19</v>
+        <v>360</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>189</v>
+        <v>361</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>19</v>
@@ -12952,10 +12938,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12963,7 +12949,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
         <v>91</v>
@@ -12978,19 +12964,19 @@
         <v>92</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>276</v>
+        <v>617</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>616</v>
+        <v>456</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>361</v>
+        <v>458</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>19</v>
@@ -13015,13 +13001,13 @@
         <v>19</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>505</v>
+        <v>19</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>618</v>
+        <v>19</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>619</v>
+        <v>19</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>19</v>
@@ -13039,10 +13025,10 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>91</v>
@@ -13060,16 +13046,16 @@
         <v>620</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>366</v>
+        <v>463</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>19</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" hidden="true">
@@ -13097,22 +13083,22 @@
         <v>19</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>622</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>624</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>19</v>
@@ -13137,13 +13123,13 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>19</v>
+        <v>473</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>19</v>
+        <v>474</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -13170,7 +13156,7 @@
         <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>19</v>
+        <v>475</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>103</v>
@@ -13179,38 +13165,38 @@
         <v>19</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>625</v>
+        <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>467</v>
+        <v>189</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>469</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>19</v>
+        <v>478</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>19</v>
@@ -13222,19 +13208,19 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>627</v>
+        <v>479</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>628</v>
+        <v>480</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>19</v>
@@ -13262,10 +13248,10 @@
         <v>149</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>478</v>
+        <v>626</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>479</v>
+        <v>627</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
@@ -13283,16 +13269,16 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>480</v>
+        <v>19</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13301,31 +13287,31 @@
         <v>19</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>19</v>
+        <v>484</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>19</v>
+        <v>487</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -13344,19 +13330,19 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>484</v>
+        <v>629</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>485</v>
+        <v>630</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13381,13 +13367,13 @@
         <v>19</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>631</v>
+        <v>19</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>632</v>
+        <v>19</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>19</v>
@@ -13405,7 +13391,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13423,145 +13409,23 @@
         <v>19</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>489</v>
+        <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>491</v>
+        <v>541</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="B93" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="E93" s="2"/>
-      <c r="F93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="P93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AP93" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP93">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13571,7 +13435,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="684">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -436,7 +436,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -456,7 +456,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1477,6 +1477,168 @@
   </si>
   <si>
     <t>http://nhn.no/fhir/nilar/ValueSet/observation-result-vs</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/ValueSet/units-of-measure-vs</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1866,7 +2028,7 @@
     <t>Some observations are presented as a hierachical set of observations. In these cases each observation may not contain any useful information in isolation. Such hierachical graphs must be presented and viewed as a whole to convey the full meaning as intended by the producer.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -2308,7 +2470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP92"/>
+  <dimension ref="A1:AP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2317,7 +2479,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -10053,9 +10215,11 @@
         <v>468</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>469</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>19</v>
       </c>
@@ -10073,22 +10237,22 @@
         <v>19</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -10113,13 +10277,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -10137,7 +10301,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10146,7 +10310,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10155,31 +10319,31 @@
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>19</v>
+        <v>461</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>189</v>
+        <v>462</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>19</v>
+        <v>464</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10198,20 +10362,16 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>271</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>479</v>
+        <v>106</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>19</v>
       </c>
@@ -10235,11 +10395,13 @@
         <v>19</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y66" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z66" t="s" s="2">
-        <v>483</v>
+        <v>19</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>19</v>
@@ -10257,49 +10419,49 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>477</v>
+        <v>108</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>484</v>
+        <v>19</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>485</v>
+        <v>19</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>486</v>
+        <v>109</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -10318,20 +10480,18 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>489</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>490</v>
+        <v>113</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>491</v>
+        <v>114</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>19</v>
       </c>
@@ -10367,19 +10527,19 @@
         <v>19</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>488</v>
+        <v>119</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10391,7 +10551,7 @@
         <v>19</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>19</v>
@@ -10400,10 +10560,10 @@
         <v>19</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>494</v>
+        <v>19</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>495</v>
+        <v>109</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
@@ -10414,10 +10574,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10437,21 +10597,23 @@
         <v>19</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>271</v>
+        <v>477</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>480</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
       </c>
@@ -10475,13 +10637,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>502</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -10499,7 +10661,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10517,27 +10679,27 @@
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>503</v>
+        <v>19</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>505</v>
+        <v>484</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>506</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10554,30 +10716,30 @@
         <v>19</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>510</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="Q69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="R69" t="s" s="2">
         <v>19</v>
       </c>
@@ -10599,9 +10761,11 @@
       <c r="X69" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y69" s="2"/>
+      <c r="Y69" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="Z69" t="s" s="2">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>19</v>
@@ -10619,7 +10783,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10640,10 +10804,10 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>19</v>
@@ -10654,10 +10818,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10677,21 +10841,21 @@
         <v>19</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>516</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="O70" s="2"/>
+        <v>499</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>500</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
       </c>
@@ -10739,7 +10903,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10757,27 +10921,27 @@
         <v>19</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>520</v>
+        <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>523</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10797,21 +10961,21 @@
         <v>19</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>525</v>
+        <v>133</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O71" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>19</v>
       </c>
@@ -10859,7 +11023,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10868,7 +11032,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>19</v>
+        <v>510</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -10877,27 +11041,27 @@
         <v>19</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>529</v>
+        <v>19</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>532</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10908,7 +11072,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>19</v>
@@ -10917,22 +11081,22 @@
         <v>19</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>534</v>
+        <v>166</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>19</v>
@@ -10957,13 +11121,11 @@
         <v>19</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y72" s="2"/>
       <c r="Z72" t="s" s="2">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>19</v>
@@ -10981,19 +11143,19 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>539</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>19</v>
@@ -11002,10 +11164,10 @@
         <v>19</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>540</v>
+        <v>502</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>541</v>
+        <v>520</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>19</v>
@@ -11016,10 +11178,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11042,16 +11204,20 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>271</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>522</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>19</v>
       </c>
@@ -11075,13 +11241,13 @@
         <v>19</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>19</v>
+        <v>526</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>19</v>
+        <v>527</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>19</v>
@@ -11099,7 +11265,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>521</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11108,10 +11274,10 @@
         <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>19</v>
+        <v>528</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>19</v>
@@ -11120,10 +11286,10 @@
         <v>19</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>109</v>
+        <v>529</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>19</v>
@@ -11134,21 +11300,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>111</v>
+        <v>531</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>19</v>
@@ -11160,18 +11326,20 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>113</v>
+        <v>532</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
+        <v>533</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>534</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
       </c>
@@ -11195,13 +11363,11 @@
         <v>19</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>19</v>
+        <v>536</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -11219,7 +11385,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>530</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11231,37 +11397,37 @@
         <v>19</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>19</v>
+        <v>537</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>19</v>
+        <v>538</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>19</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11274,25 +11440,25 @@
         <v>19</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>542</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O75" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -11341,7 +11507,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11353,7 +11519,7 @@
         <v>19</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>19</v>
@@ -11362,10 +11528,10 @@
         <v>19</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>19</v>
+        <v>547</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>189</v>
+        <v>548</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>19</v>
@@ -11402,15 +11568,17 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="M76" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11435,13 +11603,13 @@
         <v>19</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>19</v>
+        <v>553</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>19</v>
+        <v>554</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>19</v>
+        <v>555</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>19</v>
@@ -11468,7 +11636,7 @@
         <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>553</v>
+        <v>19</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>103</v>
@@ -11477,27 +11645,27 @@
         <v>19</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>19</v>
+        <v>556</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>19</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11520,16 +11688,20 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>550</v>
+        <v>271</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>564</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
       </c>
@@ -11553,13 +11725,11 @@
         <v>19</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Y77" s="2"/>
       <c r="Z77" t="s" s="2">
-        <v>19</v>
+        <v>565</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -11577,7 +11747,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11586,7 +11756,7 @@
         <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>553</v>
+        <v>19</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>103</v>
@@ -11598,10 +11768,10 @@
         <v>19</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
@@ -11612,10 +11782,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11638,20 +11808,18 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>271</v>
+        <v>569</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>19</v>
       </c>
@@ -11675,13 +11843,13 @@
         <v>19</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>565</v>
+        <v>19</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>566</v>
+        <v>19</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>19</v>
@@ -11699,7 +11867,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11717,27 +11885,27 @@
         <v>19</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>486</v>
+        <v>575</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>19</v>
+        <v>576</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11748,7 +11916,7 @@
         <v>79</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>19</v>
@@ -11760,20 +11928,18 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>271</v>
+        <v>578</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>19</v>
       </c>
@@ -11797,13 +11963,13 @@
         <v>19</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>574</v>
+        <v>19</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>575</v>
+        <v>19</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>19</v>
@@ -11821,13 +11987,13 @@
         <v>19</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>19</v>
@@ -11839,27 +12005,27 @@
         <v>19</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>486</v>
+        <v>584</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>19</v>
+        <v>585</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11870,7 +12036,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>19</v>
@@ -11882,17 +12048,19 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>589</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="O80" t="s" s="2">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>19</v>
@@ -11941,19 +12109,19 @@
         <v>19</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>592</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>19</v>
@@ -11962,10 +12130,10 @@
         <v>19</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>19</v>
+        <v>593</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>19</v>
@@ -11976,10 +12144,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12005,10 +12173,10 @@
         <v>105</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>583</v>
+        <v>106</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>584</v>
+        <v>107</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -12059,7 +12227,7 @@
         <v>19</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>582</v>
+        <v>108</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -12071,7 +12239,7 @@
         <v>19</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>19</v>
@@ -12080,10 +12248,10 @@
         <v>19</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>554</v>
+        <v>19</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>585</v>
+        <v>109</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>19</v>
@@ -12094,14 +12262,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12117,19 +12285,19 @@
         <v>19</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>587</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>589</v>
+        <v>114</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>590</v>
+        <v>115</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12179,7 +12347,7 @@
         <v>19</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>586</v>
+        <v>119</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12191,7 +12359,7 @@
         <v>19</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>19</v>
@@ -12200,10 +12368,10 @@
         <v>19</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>591</v>
+        <v>19</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>592</v>
+        <v>109</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>19</v>
@@ -12214,14 +12382,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>19</v>
+        <v>598</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12234,24 +12402,26 @@
         <v>19</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>594</v>
+        <v>112</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>19</v>
       </c>
@@ -12299,7 +12469,7 @@
         <v>19</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12311,7 +12481,7 @@
         <v>19</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>19</v>
@@ -12320,10 +12490,10 @@
         <v>19</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>591</v>
+        <v>19</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>598</v>
+        <v>189</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>19</v>
@@ -12334,10 +12504,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12348,7 +12518,7 @@
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>19</v>
@@ -12357,23 +12527,19 @@
         <v>19</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>603</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>19</v>
       </c>
@@ -12421,16 +12587,16 @@
         <v>19</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12442,10 +12608,10 @@
         <v>19</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>19</v>
@@ -12456,10 +12622,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12482,13 +12648,13 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>603</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>106</v>
+        <v>610</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>107</v>
+        <v>611</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12539,7 +12705,7 @@
         <v>19</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>108</v>
+        <v>609</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12548,10 +12714,10 @@
         <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>19</v>
+        <v>606</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>19</v>
@@ -12560,10 +12726,10 @@
         <v>19</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>19</v>
+        <v>607</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>109</v>
+        <v>612</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>19</v>
@@ -12574,21 +12740,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>19</v>
@@ -12600,18 +12766,20 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>113</v>
+        <v>614</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>114</v>
+        <v>615</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>616</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>617</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>19</v>
       </c>
@@ -12635,13 +12803,13 @@
         <v>19</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>19</v>
+        <v>618</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>19</v>
+        <v>619</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>19</v>
@@ -12659,31 +12827,31 @@
         <v>19</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>119</v>
+        <v>613</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>19</v>
+        <v>620</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>19</v>
+        <v>621</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>109</v>
+        <v>539</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>19</v>
@@ -12694,14 +12862,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>545</v>
+        <v>19</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12714,25 +12882,25 @@
         <v>19</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>115</v>
+        <v>625</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>248</v>
+        <v>626</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>19</v>
@@ -12757,13 +12925,13 @@
         <v>19</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>19</v>
+        <v>553</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>19</v>
+        <v>627</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>19</v>
+        <v>628</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>19</v>
@@ -12781,7 +12949,7 @@
         <v>19</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>548</v>
+        <v>622</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12793,19 +12961,19 @@
         <v>19</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>19</v>
+        <v>620</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>19</v>
+        <v>621</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>189</v>
+        <v>539</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>19</v>
@@ -12816,10 +12984,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12827,7 +12995,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>91</v>
@@ -12839,22 +13007,20 @@
         <v>19</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>271</v>
+        <v>630</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>612</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>356</v>
+        <v>633</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>19</v>
@@ -12879,13 +13045,13 @@
         <v>19</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>500</v>
+        <v>19</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>613</v>
+        <v>19</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>614</v>
+        <v>19</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>19</v>
@@ -12903,10 +13069,10 @@
         <v>19</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>91</v>
@@ -12921,16 +13087,16 @@
         <v>19</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>615</v>
+        <v>19</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>361</v>
+        <v>634</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>362</v>
+        <v>19</v>
       </c>
       <c r="AP88" t="s" s="2">
         <v>19</v>
@@ -12938,10 +13104,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12961,23 +13127,19 @@
         <v>19</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>617</v>
+        <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>637</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>19</v>
       </c>
@@ -13025,7 +13187,7 @@
         <v>19</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -13043,27 +13205,27 @@
         <v>19</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>620</v>
+        <v>19</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>462</v>
+        <v>607</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>463</v>
+        <v>638</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>464</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13074,7 +13236,7 @@
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>19</v>
@@ -13083,23 +13245,21 @@
         <v>19</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>271</v>
+        <v>640</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>472</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>19</v>
       </c>
@@ -13123,13 +13283,13 @@
         <v>19</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>473</v>
+        <v>19</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>474</v>
+        <v>19</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>19</v>
@@ -13147,16 +13307,16 @@
         <v>19</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>475</v>
+        <v>19</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>103</v>
@@ -13168,10 +13328,10 @@
         <v>19</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>189</v>
+        <v>644</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>476</v>
+        <v>645</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>19</v>
@@ -13182,14 +13342,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>478</v>
+        <v>19</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13205,23 +13365,21 @@
         <v>19</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>271</v>
+        <v>647</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>479</v>
+        <v>648</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>480</v>
+        <v>649</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>19</v>
       </c>
@@ -13245,13 +13403,13 @@
         <v>19</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>626</v>
+        <v>19</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>627</v>
+        <v>19</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>19</v>
@@ -13269,7 +13427,7 @@
         <v>19</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>625</v>
+        <v>646</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13287,27 +13445,27 @@
         <v>19</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>484</v>
+        <v>19</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>485</v>
+        <v>644</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>487</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13327,22 +13485,22 @@
         <v>19</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>81</v>
+        <v>587</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>629</v>
+        <v>653</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>630</v>
+        <v>654</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>537</v>
+        <v>655</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>538</v>
+        <v>656</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>19</v>
@@ -13391,7 +13549,7 @@
         <v>19</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>628</v>
+        <v>652</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13412,20 +13570,990 @@
         <v>19</v>
       </c>
       <c r="AM92" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP95" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="P96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="P97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>680</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP99" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="AN92" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AP92" t="s" s="2">
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP100" t="s" s="2">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP92">
+  <autoFilter ref="A1:AP100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13435,7 +14563,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-observation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -449,7 +449,7 @@
     <t>Observation.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -487,7 +487,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -551,7 +551,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -884,7 +884,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -972,7 +972,7 @@
     <t>Observation.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1030,7 +1030,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -1224,7 +1224,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1296,7 +1296,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1319,7 +1319,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1748,7 +1748,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1790,7 +1790,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1818,7 +1818,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1898,7 +1898,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1948,7 +1948,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1981,7 +1981,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -2040,7 +2040,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2101,7 +2101,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2143,7 +2143,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -2479,17 +2479,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.1171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.6796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="122.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2498,28 +2498,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.18359375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
